--- a/branches/cleanup/CodeSystem-cs-art-regimen-change-type.xlsx
+++ b/branches/cleanup/CodeSystem-cs-art-regimen-change-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:35:13+00:00</t>
+    <t>2023-03-03T15:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
